--- a/data/trans_camb/P23_8_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P23_8_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,42</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,26</t>
+          <t>-3,98</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>8,23</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,15</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,45</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>3,01</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 2,94</t>
+          <t>-9,82; 2,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 2,04</t>
+          <t>-8,37; 3,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,14; 15,16</t>
+          <t>-10,32; 2,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 4,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 5,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 10,7</t>
+          <t>-4,85; 6,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 2,59</t>
+          <t>-4,15; 6,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 2,97</t>
+          <t>0,59; 15,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,65; 11,41</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-5,21; 3,5</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-4,12; 3,88</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-2,23; 8,39</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-20,72%</t>
+          <t>-31,53%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-27,65%</t>
+          <t>-25,94%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>105,89%</t>
+          <t>-45,54%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>68,08%</t>
+          <t>18,9%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-7,73%</t>
+          <t>24,71%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-2,95%</t>
+          <t>103,39%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>85,99%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-5,45%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0,75%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>36,19%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-58,78; 55,64</t>
+          <t>-69,54; 66,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-65,44; 36,44</t>
+          <t>-65,85; 66,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,49; 251,09</t>
+          <t>-81,72; 61,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-43,01; 79,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-34,92; 109,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-9,38; 178,19</t>
+          <t>-42,33; 144,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-37,83; 40,88</t>
+          <t>-32,58; 160,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-37,29; 44,95</t>
+          <t>0,95; 316,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>24,39; 179,52</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-44,83; 64,96</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-35,89; 69,04</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-20,7; 137,95</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,37</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,87</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,13</t>
+          <t>-3,4</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>-2,64</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,67</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-1,74</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,76</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,57</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 4,04</t>
+          <t>-3,08; 5,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 4,07</t>
+          <t>-1,93; 4,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,08; 9,45</t>
+          <t>-2,02; 5,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 0,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 1,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,4; 8,79</t>
+          <t>-8,1; 0,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 1,19</t>
+          <t>-7,81; 0,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 1,87</t>
+          <t>-5,76; 3,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,31; 7,41</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-4,8; 1,22</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-3,75; 1,63</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-2,71; 3,39</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>23,18%</t>
+          <t>24,58%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>101,72%</t>
+          <t>30,55%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-34,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-25,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>50,0%</t>
+          <t>-39,1%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-17,43%</t>
+          <t>-30,34%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-6,25%</t>
+          <t>-3,43%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>69,0%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-25,12%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-10,97%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>8,21%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-39,62; 96,17</t>
+          <t>-53,59; 174,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-23,23; 99,2</t>
+          <t>-27,85; 126,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,0; 226,58</t>
+          <t>-31,65; 163,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-58,42; 3,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-53,15; 16,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,85; 129,37</t>
+          <t>-65,23; 3,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-40,74; 21,4</t>
+          <t>-59,7; 12,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-30,44; 32,36</t>
+          <t>-47,5; 63,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>28,86; 126,38</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-54,9; 31,34</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-41,23; 31,73</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-32,02; 64,07</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,05</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>3,88</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,95</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,22</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,95</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>2,9</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 3,23</t>
+          <t>-6,24; 4,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 3,31</t>
+          <t>-7,32; 3,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 10,83</t>
+          <t>-5,08; 5,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 2,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 3,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,59; 8,95</t>
+          <t>-2,32; 2,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 1,89</t>
+          <t>-0,42; 4,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 2,92</t>
+          <t>0,75; 7,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,05; 8,42</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-3,38; 2,34</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-1,99; 3,14</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-0,24; 5,54</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-20,01%</t>
+          <t>-15,9%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>-2,64%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>131,95%</t>
+          <t>44,75%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>14,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>71,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>192,4%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-6,28%</t>
+          <t>79,25%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>32,14%</t>
+          <t>157,76%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>154,91%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-6,65%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>29,14%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>88,64%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-81,89; 167,25</t>
+          <t>-88,76; 252,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-64,14; 147,64</t>
+          <t>-74,11; 177,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-24,42; 449,06</t>
+          <t>-68,18; 315,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-51,38; 156,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-10,28; 269,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>35,13; 520,28</t>
+          <t>-58,33; 176,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-56,45; 84,57</t>
+          <t>-18,46; 333,21</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-31,17; 124,84</t>
+          <t>9,87; 539,9</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>29,58; 349,92</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-66,21; 116,78</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-39,89; 164,48</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-15,13; 278,25</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,91</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,17</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6,02</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,11</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>4,15</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 2,17</t>
+          <t>-2,11; 4,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 2,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,4; 9,56</t>
+          <t>1,04; 9,9</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 0,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 1,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,57; 7,74</t>
+          <t>-5,29; 1,95</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 0,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 1,45</t>
+          <t>-1,15; 8,36</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,14; 8,03</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-2,68; 2,43</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1,06; 7,35</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-4,59%</t>
+          <t>27,73%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>127,14%</t>
+          <t>91,77%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-17,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-0,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>80,03%</t>
+          <t>-24,14%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-11,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>43,93%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>101,07%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-1,64%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>64,09%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-37,76; 50,43</t>
+          <t>-33,73; 117,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-27,51; 56,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>65,0; 210,21</t>
+          <t>8,48; 230,63</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-40,31; 9,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-25,63; 34,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>32,54; 144,07</t>
+          <t>-58,29; 38,25</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-32,22; 12,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-19,85; 28,7</t>
+          <t>-14,16; 133,34</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>59,75; 147,73</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-36,4; 43,19</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>12,61; 130,96</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2,04</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-1,43</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,35</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3,02</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-0,78</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-0,08</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>2,54</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-2,16; 2,26</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-1,56; 2,26</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-0,16; 4,42</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-3,43; 0,3</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,46; 1,44</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0,81; 5,58</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-2,09; 0,8</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-1,33; 1,37</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>0,92; 4,37</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-1,94%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>4,01%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>38,05%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-20,96%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-5,13%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>44,36%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-12,81%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-1,25%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>41,51%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-35,0; 51,92</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-24,83; 54,26</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-5,88; 95,99</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-42,57; 6,42</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-30,6; 25,8</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>10,29; 95,14</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-30,88; 15,1</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-19,6; 25,71</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>13,45; 82,02</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
